--- a/resultTables.xlsx
+++ b/resultTables.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jing/Dropbox/MNase-seq/cottonMNase-seq_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606D2A8-EC4F-F24D-8258-F99FDF7587C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74465B8-DAA8-6C4F-8B94-54315AEDD8F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="460" windowWidth="17600" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16900" yWindow="3940" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="iseg" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$N$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$18</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="245">
   <si>
     <t>Sample</t>
   </si>
@@ -649,16 +650,137 @@
   </si>
   <si>
     <t>Covered region by reads q&gt;20 (bp)</t>
+  </si>
+  <si>
+    <t>Table 6. Summary of Median Absolute Deviation (MAD, and SD=1.4826*MAD)</t>
+  </si>
+  <si>
+    <t>A6D</t>
+  </si>
+  <si>
+    <t>A6Dn</t>
+  </si>
+  <si>
+    <t>allChrs</t>
+  </si>
+  <si>
+    <t>D1D</t>
+  </si>
+  <si>
+    <t>D2D</t>
+  </si>
+  <si>
+    <t>M1D: At</t>
+  </si>
+  <si>
+    <t>M1D: Dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2D: At </t>
+  </si>
+  <si>
+    <t>M2D: Dt</t>
+  </si>
+  <si>
+    <t>A2Du+D5</t>
+  </si>
+  <si>
+    <t>A2_Du</t>
+  </si>
+  <si>
+    <t>FcH</t>
+  </si>
+  <si>
+    <t>FcH: At</t>
+  </si>
+  <si>
+    <t>FcH: D5</t>
+  </si>
+  <si>
+    <t>Nuclesome number</t>
+  </si>
+  <si>
+    <t>% genome covered</t>
+  </si>
+  <si>
+    <t>BP genome covered</t>
+  </si>
+  <si>
+    <t>McH: At</t>
+  </si>
+  <si>
+    <t>McH: D5</t>
+  </si>
+  <si>
+    <t>McH</t>
+  </si>
+  <si>
+    <t>Dt_total</t>
+  </si>
+  <si>
+    <t>W,&lt;150bp</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>N.Fuzzy</t>
+  </si>
+  <si>
+    <t>N.uncertain</t>
+  </si>
+  <si>
+    <t>N.well</t>
+  </si>
+  <si>
+    <t>N.well150</t>
+  </si>
+  <si>
+    <t>bp.Fuzzy</t>
+  </si>
+  <si>
+    <t>bp.uncertain</t>
+  </si>
+  <si>
+    <t>bp.well</t>
+  </si>
+  <si>
+    <t>bp.well150</t>
+  </si>
+  <si>
+    <t>DcH</t>
+  </si>
+  <si>
+    <t>F1 hybrid</t>
+  </si>
+  <si>
+    <t>A-genome</t>
+  </si>
+  <si>
+    <t>D-genome</t>
+  </si>
+  <si>
+    <t>Diploids</t>
+  </si>
+  <si>
+    <t>AD1 polyploid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -790,8 +912,43 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,8 +973,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -851,8 +1032,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -866,8 +1167,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -897,7 +1200,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -916,13 +1219,75 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="8" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="8" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="8" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
+    <cellStyle name="Comma" xfId="13" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -936,6 +1301,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="14" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -948,6 +1314,2122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nucleosome covered genomic region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A-genome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$111:$W$111</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Diploids</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1 hybrid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AD1 polyploid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$112:$W$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76669502663791811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76482252184844812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78099243019284514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-581B-404C-AC22-D124BC4E81F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D-genome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="50000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$111:$W$111</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Diploids</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1 hybrid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AD1 polyploid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$113:$W$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89925982353384537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88346462557216721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82681333551446146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-581B-404C-AC22-D124BC4E81F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="452878832"/>
+        <c:axId val="452182288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452878832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452182288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452182288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452878832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Well-positioned</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> nucleosme covered genomic region</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A-genome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AA$111:$AC$111</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Diploids</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1 hybrid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AD1 polyploid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$112:$AC$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.15239519216691258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15877632756491505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19061459713618828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1499-8E42-9124-DEDDC44FE5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D-genome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="50000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AA$111:$AC$111</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Diploids</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1 hybrid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AD1 polyploid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$113:$AC$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19718667115110433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1909906140865594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19372643742388826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1499-8E42-9124-DEDDC44FE5D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="471029344"/>
+        <c:axId val="471609888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471029344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471609888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471609888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471029344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7181128F-542C-7B47-AD53-1E6C508B850D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F749D255-7641-CE44-A615-A1D340C519D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1272,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,16 +3772,19 @@
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1339,11 +3824,12 @@
       <c r="M2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
@@ -1384,12 +3870,13 @@
         <f>C3/10^6/L3</f>
         <v>0.12644510638297873</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21">
         <f>D3/L3/10^6</f>
         <v>6.2539223404255315E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -1430,12 +3917,13 @@
         <f t="shared" ref="M4:M18" si="0">C4/10^6/L4</f>
         <v>0.99817716489361707</v>
       </c>
-      <c r="N4" s="21">
-        <f t="shared" ref="N4:N18" si="1">D4/L4/10^6</f>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21">
+        <f t="shared" ref="O4:O18" si="1">D4/L4/10^6</f>
         <v>0.25548303191489363</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>199</v>
       </c>
@@ -1476,12 +3964,13 @@
         <f>C5/10^6/L5</f>
         <v>0.93761917553191487</v>
       </c>
-      <c r="N5" s="21">
-        <f t="shared" ref="N5:N6" si="2">D5/L5/10^6</f>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21">
+        <f t="shared" ref="O5:O6" si="2">D5/L5/10^6</f>
         <v>0.53407454787234043</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>201</v>
       </c>
@@ -1522,12 +4011,13 @@
         <f t="shared" ref="M6" si="3">C6/10^6/L6</f>
         <v>1.0817660159574467</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="21"/>
+      <c r="O6" s="21">
         <f t="shared" si="2"/>
         <v>0.77231609574468085</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1568,12 +4058,13 @@
         <f t="shared" si="0"/>
         <v>0.45026646590909092</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
         <f t="shared" si="1"/>
         <v>0.27803537499999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1614,12 +4105,13 @@
         <f t="shared" si="0"/>
         <v>0.24344786363636362</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21">
         <f t="shared" si="1"/>
         <v>0.17057264772727274</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1660,12 +4152,13 @@
         <f t="shared" si="0"/>
         <v>0.31826565909090909</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21">
         <f t="shared" si="1"/>
         <v>0.15241989772727274</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1706,12 +4199,13 @@
         <f t="shared" si="0"/>
         <v>0.42158910227272722</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="21"/>
+      <c r="O10" s="21">
         <f t="shared" si="1"/>
         <v>0.27224429545454548</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
@@ -1752,12 +4246,13 @@
         <f t="shared" si="0"/>
         <v>0.67591881716417912</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
         <f t="shared" si="1"/>
         <v>0.48013330970149254</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1798,12 +4293,13 @@
         <f t="shared" si="0"/>
         <v>0.40317147761194028</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21">
         <f t="shared" si="1"/>
         <v>0.323591302238806</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1844,12 +4340,13 @@
         <f t="shared" si="0"/>
         <v>0.43871640298507464</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="21"/>
+      <c r="O13" s="21">
         <f t="shared" si="1"/>
         <v>0.23254580597014926</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1890,12 +4387,13 @@
         <f t="shared" si="0"/>
         <v>0.53153351119402992</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="21"/>
+      <c r="O14" s="21">
         <f t="shared" si="1"/>
         <v>0.40903808208955222</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1936,12 +4434,13 @@
         <f t="shared" si="0"/>
         <v>0.76963202916666673</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="21"/>
+      <c r="O15" s="21">
         <f t="shared" si="1"/>
         <v>0.40518194166666666</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -1982,12 +4481,13 @@
         <f t="shared" si="0"/>
         <v>0.46400844583333334</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21">
         <f t="shared" si="1"/>
         <v>0.34455311249999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -2028,12 +4528,13 @@
         <f t="shared" si="0"/>
         <v>0.68464166250000003</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="21"/>
+      <c r="O17" s="21">
         <f t="shared" si="1"/>
         <v>0.38303386249999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
@@ -2074,23 +4575,24 @@
         <f t="shared" si="0"/>
         <v>0.93720244583333334</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="21"/>
+      <c r="O18" s="21">
         <f t="shared" si="1"/>
         <v>0.60920429583333324</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="E19" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -2101,7 +4603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2112,8 +4614,11 @@
         <f>B23*1000*2/200</f>
         <v>18.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="26">
+        <v>1167736467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>47</v>
       </c>
@@ -2128,7 +4633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>49</v>
       </c>
@@ -2143,7 +4648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>48</v>
       </c>
@@ -2158,30 +4663,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +4721,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>33</v>
       </c>
@@ -2256,11 +4761,11 @@
         <v>846461570</v>
       </c>
       <c r="L33" s="18">
-        <f>K33/$H$77</f>
+        <f>K33/$H$81</f>
         <v>0.55250695919004134</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
@@ -2274,7 +4779,7 @@
         <v>187605447</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" ref="E34:E52" si="5">D34/C34</f>
+        <f t="shared" ref="E34:E56" si="5">D34/C34</f>
         <v>0.99972364518691514</v>
       </c>
       <c r="F34" s="17">
@@ -2300,11 +4805,11 @@
         <v>1153360709</v>
       </c>
       <c r="L34" s="18">
-        <f>K34/$H$77</f>
+        <f>K34/$H$81</f>
         <v>0.75282781967155366</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>199</v>
       </c>
@@ -2337,18 +4842,18 @@
         <v>0.61569219533763442</v>
       </c>
       <c r="J35" s="29">
-        <f t="shared" ref="J35:J38" si="7">H35/$C$23/10^6</f>
+        <f t="shared" ref="J35:J37" si="7">H35/$C$23/10^6</f>
         <v>5.7717411170212767</v>
       </c>
       <c r="K35" s="17">
         <v>1159715606</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" ref="L34:L36" si="8">K35/$H$77</f>
+        <f t="shared" ref="L35" si="8">K35/$H$81</f>
         <v>0.75697582230023286</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>201</v>
       </c>
@@ -2388,11 +4893,11 @@
         <v>1172343092</v>
       </c>
       <c r="L36" s="18">
-        <f>K36/$H$77</f>
+        <f>K36/$H$81</f>
         <v>0.76521810303611415</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="17"/>
@@ -2425,11 +4930,11 @@
         <v>826947184</v>
       </c>
       <c r="L37" s="47">
-        <f>K37/$N$77</f>
+        <f>K37/$O$81</f>
         <v>0.56266685562412411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="17"/>
@@ -2449,7 +4954,7 @@
         <v>119586460</v>
       </c>
       <c r="I38" s="47">
-        <f t="shared" ref="I38:I40" si="10">H38/D34</f>
+        <f t="shared" ref="I38:I39" si="10">H38/D34</f>
         <v>0.63743596954303783</v>
       </c>
       <c r="J38" s="48">
@@ -2460,11 +4965,11 @@
         <v>1145187355</v>
       </c>
       <c r="L38" s="47">
-        <f t="shared" ref="L38:L40" si="12">K38/$N$77</f>
+        <f>K38/$O$81</f>
         <v>0.77920208279995495</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="17"/>
@@ -2481,25 +4986,25 @@
         <v>0.96372026982238235</v>
       </c>
       <c r="H39" s="45">
-        <v>119586460</v>
+        <v>105997105</v>
       </c>
       <c r="I39" s="47">
         <f t="shared" si="10"/>
-        <v>0.67854861129063415</v>
+        <v>0.6014409022440963</v>
       </c>
       <c r="J39" s="48">
-        <f t="shared" si="11"/>
-        <v>6.3609819148936166</v>
+        <f>H39/$C$23/10^6</f>
+        <v>5.6381438829787234</v>
       </c>
       <c r="K39" s="45">
         <v>1135807090</v>
       </c>
       <c r="L39" s="47">
-        <f t="shared" si="12"/>
+        <f>K39/$O$81</f>
         <v>0.77281961446994485</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="17"/>
@@ -2530,155 +5035,191 @@
         <v>1160384513</v>
       </c>
       <c r="L40" s="47">
-        <f>K40/$N$77</f>
+        <f>K40/$O$81</f>
         <v>0.78954244947841867</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="65">
         <v>39623449</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="65">
         <v>39607317</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="66">
         <f t="shared" si="5"/>
         <v>0.99959286734478869</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="65">
         <v>38647991</v>
       </c>
-      <c r="G41" s="18">
-        <f t="shared" ref="G41:G52" si="13">F41/D41</f>
+      <c r="G41" s="66">
+        <f t="shared" ref="G41:G56" si="12">F41/D41</f>
         <v>0.97577907132664399</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="65">
         <v>33967312</v>
       </c>
-      <c r="I41" s="18">
-        <f t="shared" ref="I41:I51" si="14">H41/D41</f>
+      <c r="I41" s="66">
+        <f t="shared" ref="I41:I55" si="13">H41/D41</f>
         <v>0.85760194259055722</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="67">
         <f>H41/$C$24/10^6</f>
         <v>3.8599218181818178</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="K41" s="65">
+        <v>704379491</v>
+      </c>
+      <c r="L41" s="66">
+        <f>K41/$E$94</f>
+        <v>0.9401402595570062</v>
+      </c>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+    </row>
+    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="65">
         <v>21423412</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="65">
         <v>21403476</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="66">
         <f t="shared" si="5"/>
         <v>0.99906942927671838</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="65">
         <v>20226201</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="66">
+        <f t="shared" si="12"/>
+        <v>0.94499608381367584</v>
+      </c>
+      <c r="H42" s="65">
+        <v>18024273</v>
+      </c>
+      <c r="I42" s="66">
         <f t="shared" si="13"/>
-        <v>0.94499608381367584</v>
-      </c>
-      <c r="H42" s="17">
-        <v>18024273</v>
-      </c>
-      <c r="I42" s="18">
-        <f t="shared" si="14"/>
         <v>0.84211896235919814</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="67">
         <f>H42/$C$24/10^6</f>
         <v>2.0482128409090907</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="K42" s="65">
+        <v>682097324</v>
+      </c>
+      <c r="L42" s="66">
+        <f>K42/$E$94</f>
+        <v>0.91040009458267912</v>
+      </c>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+    </row>
+    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="65">
         <v>28007378</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="65">
         <v>27977896</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="66">
         <f t="shared" si="5"/>
         <v>0.99894734880216207</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="65">
         <v>26044246</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="66">
+        <f t="shared" si="12"/>
+        <v>0.93088651126589361</v>
+      </c>
+      <c r="H43" s="65">
+        <v>22277062</v>
+      </c>
+      <c r="I43" s="66">
         <f t="shared" si="13"/>
-        <v>0.93088651126589361</v>
-      </c>
-      <c r="H43" s="17">
-        <v>22277062</v>
-      </c>
-      <c r="I43" s="18">
-        <f t="shared" si="14"/>
         <v>0.79623793011454469</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="67">
         <f>H43/$C$24/10^6</f>
         <v>2.5314843181818181</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="K43" s="65">
+        <v>671499296</v>
+      </c>
+      <c r="L43" s="66">
+        <f>K43/$E$94</f>
+        <v>0.89625483208991807</v>
+      </c>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+    </row>
+    <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="65">
         <v>37099841</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="65">
         <v>37078772</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="66">
         <f t="shared" si="5"/>
         <v>0.99943209999201887</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="65">
         <v>35760046</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="66">
+        <f t="shared" si="12"/>
+        <v>0.96443447479867994</v>
+      </c>
+      <c r="H44" s="65">
+        <v>31783886</v>
+      </c>
+      <c r="I44" s="66">
         <f t="shared" si="13"/>
-        <v>0.96443447479867994</v>
-      </c>
-      <c r="H44" s="17">
-        <v>31783886</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" si="14"/>
         <v>0.85719899245854203</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="67">
         <f>H44/$C$24/10^6</f>
         <v>3.6118052272727272</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K44" s="65">
+        <v>710212962</v>
+      </c>
+      <c r="L44" s="66">
+        <f>K44/$E$94</f>
+        <v>0.94792623431937795</v>
+      </c>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+    </row>
+    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>35</v>
       </c>
@@ -2699,22 +5240,25 @@
         <v>175935106</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.97181459325428565</v>
       </c>
       <c r="H45" s="17">
         <v>118021415</v>
       </c>
       <c r="I45" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.65191612987984471</v>
       </c>
       <c r="J45" s="29">
-        <f>H45/$C$25/10^6</f>
+        <f t="shared" ref="J45:J52" si="14">H45/$C$25/10^6</f>
         <v>4.4037841417910446</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="18"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+    </row>
+    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>15</v>
       </c>
@@ -2735,22 +5279,23 @@
         <v>103832631</v>
       </c>
       <c r="G46" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.9614754966358563</v>
       </c>
       <c r="H46" s="17">
         <v>73302637</v>
       </c>
       <c r="I46" s="18">
+        <f t="shared" si="13"/>
+        <v>0.6787720645766252</v>
+      </c>
+      <c r="J46" s="29">
         <f t="shared" si="14"/>
-        <v>0.6787720645766252</v>
-      </c>
-      <c r="J46" s="29">
-        <f>H46/$C$25/10^6</f>
         <v>2.7351730223880595</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>31</v>
       </c>
@@ -2771,22 +5316,23 @@
         <v>112936934</v>
       </c>
       <c r="G47" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.96122511441136338</v>
       </c>
       <c r="H47" s="17">
         <v>77576676</v>
       </c>
       <c r="I47" s="18">
+        <f t="shared" si="13"/>
+        <v>0.66026805069591554</v>
+      </c>
+      <c r="J47" s="29">
         <f t="shared" si="14"/>
-        <v>0.66026805069591554</v>
-      </c>
-      <c r="J47" s="29">
-        <f>H47/$C$25/10^6</f>
         <v>2.8946520895522387</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>29</v>
       </c>
@@ -2807,2444 +5353,4037 @@
         <v>135325908</v>
       </c>
       <c r="G48" s="18">
-        <f t="shared" si="13"/>
+        <f>F48/D48</f>
         <v>0.9509778678348576</v>
       </c>
       <c r="H48" s="17">
         <v>95661098</v>
       </c>
       <c r="I48" s="18">
+        <f>H48/D48</f>
+        <v>0.67224072873600349</v>
+      </c>
+      <c r="J48" s="29">
         <f t="shared" si="14"/>
-        <v>0.67224072873600349</v>
-      </c>
-      <c r="J48" s="29">
-        <f>H48/$C$25/10^6</f>
         <v>3.5694439552238806</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="59">
+        <f>D45-5669574</f>
+        <v>175368154</v>
+      </c>
+      <c r="G49" s="61">
+        <f>F49/D45</f>
+        <v>0.96868291453591371</v>
+      </c>
+      <c r="H49" s="59">
+        <v>116008209</v>
+      </c>
+      <c r="I49" s="61">
+        <f>H49/D45</f>
+        <v>0.64079576274841454</v>
+      </c>
+      <c r="J49" s="62">
+        <f t="shared" si="14"/>
+        <v>4.3286645149253724</v>
+      </c>
+      <c r="K49" s="63"/>
+      <c r="L49" s="61"/>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="59">
+        <f>D46-4474950</f>
+        <v>103518058</v>
+      </c>
+      <c r="G50" s="61">
+        <f t="shared" ref="G50:G52" si="15">F50/D46</f>
+        <v>0.95856259508948949</v>
+      </c>
+      <c r="H50" s="59">
+        <v>72395403</v>
+      </c>
+      <c r="I50" s="61">
+        <f t="shared" ref="I50:I51" si="16">H50/D46</f>
+        <v>0.67037120588399579</v>
+      </c>
+      <c r="J50" s="62">
+        <f t="shared" si="14"/>
+        <v>2.7013210074626866</v>
+      </c>
+      <c r="K50" s="63"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="59">
+        <f>C47-4896383</f>
+        <v>112679613</v>
+      </c>
+      <c r="G51" s="61">
+        <f t="shared" si="15"/>
+        <v>0.9590350123880037</v>
+      </c>
+      <c r="H51" s="59">
+        <v>76347017</v>
+      </c>
+      <c r="I51" s="61">
+        <f t="shared" si="16"/>
+        <v>0.6498022174994702</v>
+      </c>
+      <c r="J51" s="62">
+        <f t="shared" si="14"/>
+        <v>2.8487692910447757</v>
+      </c>
+      <c r="K51" s="63"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="59">
+        <f>C48-7375292</f>
+        <v>135075689</v>
+      </c>
+      <c r="G52" s="61">
+        <f t="shared" si="15"/>
+        <v>0.94921949994633947</v>
+      </c>
+      <c r="H52" s="59">
+        <v>94436482</v>
+      </c>
+      <c r="I52" s="61">
+        <f>H52/D48</f>
+        <v>0.66363496558386226</v>
+      </c>
+      <c r="J52" s="62">
+        <f t="shared" si="14"/>
+        <v>3.5237493283582086</v>
+      </c>
+      <c r="K52" s="63"/>
+      <c r="L52" s="61"/>
+    </row>
+    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C53" s="17">
         <v>184711687</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D53" s="17">
         <v>184659336</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E53" s="18">
         <f t="shared" si="5"/>
         <v>0.99971657992599028</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F53" s="17">
         <v>171822931</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G53" s="18">
+        <f t="shared" si="12"/>
+        <v>0.93048602210938314</v>
+      </c>
+      <c r="H53" s="17">
+        <v>112337918</v>
+      </c>
+      <c r="I53" s="18">
         <f t="shared" si="13"/>
-        <v>0.93048602210938314</v>
-      </c>
-      <c r="H49" s="17">
-        <v>112337918</v>
-      </c>
-      <c r="I49" s="18">
-        <f t="shared" si="14"/>
         <v>0.60835222541902778</v>
       </c>
-      <c r="J49" s="29">
-        <f t="shared" ref="J49:J54" si="15">H49/$C$26/10^6</f>
+      <c r="J53" s="29">
+        <f t="shared" ref="J53:J58" si="17">H53/$C$26/10^6</f>
         <v>4.6807465833333328</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B54" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C54" s="17">
         <v>111362027</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D54" s="17">
         <v>111321708</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E54" s="18">
         <f t="shared" si="5"/>
         <v>0.99963794660454586</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F54" s="17">
         <v>103276207</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G54" s="18">
+        <f t="shared" si="12"/>
+        <v>0.92772747432154024</v>
+      </c>
+      <c r="H54" s="17">
+        <v>68353287</v>
+      </c>
+      <c r="I54" s="18">
         <f t="shared" si="13"/>
-        <v>0.92772747432154024</v>
-      </c>
-      <c r="H50" s="17">
-        <v>68353287</v>
-      </c>
-      <c r="I50" s="18">
-        <f t="shared" si="14"/>
         <v>0.61401579465525269</v>
       </c>
-      <c r="J50" s="29">
-        <f t="shared" si="15"/>
+      <c r="J54" s="29">
+        <f t="shared" si="17"/>
         <v>2.8480536249999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C55" s="17">
         <v>164313999</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D55" s="17">
         <v>164263036</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E55" s="18">
         <f t="shared" si="5"/>
         <v>0.99968984383369552</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F55" s="17">
         <v>152838504</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G55" s="18">
+        <f t="shared" si="12"/>
+        <v>0.93044976960002124</v>
+      </c>
+      <c r="H55" s="17">
+        <v>98845449</v>
+      </c>
+      <c r="I55" s="18">
         <f t="shared" si="13"/>
-        <v>0.93044976960002124</v>
-      </c>
-      <c r="H51" s="17">
-        <v>98845449</v>
-      </c>
-      <c r="I51" s="18">
-        <f t="shared" si="14"/>
         <v>0.60175101719171931</v>
       </c>
-      <c r="J51" s="29">
-        <f t="shared" si="15"/>
+      <c r="J55" s="29">
+        <f t="shared" si="17"/>
         <v>4.1185603750000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C56" s="17">
         <v>224928587</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D56" s="17">
         <v>224840532</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E56" s="18">
         <f t="shared" si="5"/>
         <v>0.99960852019223323</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F56" s="17">
         <v>209624290</v>
       </c>
-      <c r="G52" s="18">
-        <f t="shared" si="13"/>
+      <c r="G56" s="18">
+        <f t="shared" si="12"/>
         <v>0.932324292845918</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H56" s="17">
         <v>139003334</v>
       </c>
-      <c r="I52" s="18">
-        <f>H52/D52</f>
+      <c r="I56" s="18">
+        <f>H56/D56</f>
         <v>0.61823076454916059</v>
       </c>
-      <c r="J52" s="29">
-        <f t="shared" si="15"/>
+      <c r="J56" s="29">
+        <f t="shared" si="17"/>
         <v>5.7918055833333328</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D53" s="32" t="s">
+      <c r="L56" s="18"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D57" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E57" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F57" s="50">
         <v>178931320</v>
       </c>
-      <c r="G53" s="51">
+      <c r="G57" s="51">
         <v>0.96899999999999997</v>
       </c>
-      <c r="H53" s="50">
+      <c r="H57" s="50">
         <v>128055730</v>
       </c>
-      <c r="I53" s="37">
-        <f>H53/D49</f>
+      <c r="I57" s="37">
+        <f>H57/D53</f>
         <v>0.69347010973764145</v>
       </c>
-      <c r="J53" s="52">
-        <f t="shared" si="15"/>
+      <c r="J57" s="52">
+        <f t="shared" si="17"/>
         <v>5.3356554166666665</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D54" s="32"/>
-      <c r="E54" s="33" t="s">
+      <c r="K57" s="45">
+        <v>1803653128</v>
+      </c>
+      <c r="L57" s="18">
+        <f>K57/$K$94</f>
+        <v>0.83087474430284658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D58" s="32"/>
+      <c r="E58" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F58" s="50">
         <v>107737875</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G58" s="51">
         <v>0.96779999999999999</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H58" s="50">
         <v>77827484</v>
       </c>
-      <c r="I54" s="37">
-        <f t="shared" ref="I54:I56" si="16">H54/D50</f>
+      <c r="I58" s="37">
+        <f t="shared" ref="I58:I60" si="18">H58/D54</f>
         <v>0.69912225924524984</v>
       </c>
-      <c r="J54" s="52">
-        <f t="shared" si="15"/>
+      <c r="J58" s="52">
+        <f t="shared" si="17"/>
         <v>3.2428118333333336</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D55" s="32"/>
-      <c r="E55" s="33" t="s">
+      <c r="K58" s="45">
+        <v>1782314018</v>
+      </c>
+      <c r="L58" s="18">
+        <f t="shared" ref="L58:L60" si="19">K58/$K$94</f>
+        <v>0.82104462381589871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D59" s="32"/>
+      <c r="E59" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F59" s="50">
         <v>159195504</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G59" s="51">
         <v>0.96909999999999996</v>
       </c>
-      <c r="H55" s="50">
+      <c r="H59" s="50">
         <v>113082817</v>
       </c>
-      <c r="I55" s="37">
-        <f t="shared" si="16"/>
+      <c r="I59" s="37">
+        <f t="shared" si="18"/>
         <v>0.68842522184966803</v>
       </c>
-      <c r="J55" s="52">
-        <f t="shared" ref="J55:J56" si="17">H55/$C$26/10^6</f>
+      <c r="J59" s="52">
+        <f t="shared" ref="J59:J60" si="20">H59/$C$26/10^6</f>
         <v>4.7117840416666672</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D56" s="32"/>
-      <c r="E56" s="33" t="s">
+      <c r="K59" s="45">
+        <v>1796858127</v>
+      </c>
+      <c r="L59" s="18">
+        <f t="shared" si="19"/>
+        <v>0.8277445444707574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D60" s="32"/>
+      <c r="E60" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F60" s="36">
         <v>224840532</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G60" s="51">
         <v>0.97119999999999995</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H60" s="50">
         <v>157247172</v>
       </c>
-      <c r="I56" s="37">
-        <f t="shared" si="16"/>
+      <c r="I60" s="37">
+        <f t="shared" si="18"/>
         <v>0.69937199757203916</v>
       </c>
-      <c r="J56" s="52">
-        <f t="shared" si="17"/>
+      <c r="J60" s="52">
+        <f t="shared" si="20"/>
         <v>6.5519654999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F57" s="26"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F59" s="26"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="25"/>
-    </row>
-    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="K60" s="45">
+        <v>1820514069</v>
+      </c>
+      <c r="L60" s="18">
+        <f t="shared" si="19"/>
+        <v>0.83864194178921403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F61" s="26"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F63" s="26"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="66" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="G63" s="8" t="s">
+      <c r="C67" s="4"/>
+      <c r="G67" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J67" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K67" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M63" s="43" t="s">
+      <c r="M67" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="N63" s="43" t="s">
+      <c r="N67" s="43"/>
+      <c r="O67" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B68" s="17">
         <v>99884700</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G68" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H68" s="14">
         <v>147124056</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J68" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K68" s="14">
         <v>104050246</v>
       </c>
-      <c r="M64" s="44" t="s">
+      <c r="M68" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N68" s="44"/>
+      <c r="O68" s="14">
         <v>113035596</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B69" s="17">
         <v>83447906</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G69" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H69" s="14">
         <v>101022459</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J69" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K69" s="14">
         <v>90410113</v>
       </c>
-      <c r="M65" s="44" t="s">
+      <c r="M69" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N69" s="44"/>
+      <c r="O69" s="14">
         <v>99090824</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B70" s="17">
         <v>100263045</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G70" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H70" s="14">
         <v>102937433</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J70" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K70" s="14">
         <v>108673976</v>
       </c>
-      <c r="M66" s="44" t="s">
+      <c r="M70" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N70" s="44"/>
+      <c r="O70" s="14">
         <v>135709677</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B71" s="17">
         <v>62913772</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G71" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H71" s="14">
         <v>137674440</v>
       </c>
-      <c r="J67" s="14" t="s">
+      <c r="J71" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K71" s="14">
         <v>82679320</v>
       </c>
-      <c r="M67" s="44" t="s">
+      <c r="M71" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N71" s="44"/>
+      <c r="O71" s="14">
         <v>98600468</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B72" s="17">
         <v>92047023</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G72" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H72" s="14">
         <v>59691044</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J72" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K72" s="14">
         <v>100714657</v>
       </c>
-      <c r="M68" s="44" t="s">
+      <c r="M72" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N72" s="44"/>
+      <c r="O72" s="14">
         <v>97880472</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B73" s="17">
         <v>103170444</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G73" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H73" s="14">
         <v>121338753</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J73" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K73" s="14">
         <v>121513442</v>
       </c>
-      <c r="M69" s="44" t="s">
+      <c r="M73" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N73" s="44"/>
+      <c r="O73" s="14">
         <v>132263754</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B74" s="17">
         <v>78251018</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G74" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H74" s="14">
         <v>127720257</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J74" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K74" s="14">
         <v>93829987</v>
       </c>
-      <c r="M70" s="44" t="s">
+      <c r="M74" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N74" s="44"/>
+      <c r="O74" s="14">
         <v>97507971</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+    <row r="75" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B75" s="17">
         <v>103626341</v>
       </c>
-      <c r="C71"/>
-      <c r="G71" s="27" t="s">
+      <c r="C75"/>
+      <c r="G75" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="H71" s="27">
+      <c r="H75" s="27">
         <v>127390056</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J75" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K75" s="8">
         <v>123748673</v>
       </c>
-      <c r="M71" s="44" t="s">
+      <c r="M75" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N75" s="44"/>
+      <c r="O75" s="8">
         <v>129432109</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B76" s="17">
         <v>74999931</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G76" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H76" s="14">
         <v>96603200</v>
       </c>
-      <c r="J72" s="14" t="s">
+      <c r="J76" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K76" s="14">
         <v>81831061</v>
       </c>
-      <c r="M72" s="44" t="s">
+      <c r="M76" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N76" s="44"/>
+      <c r="O76" s="14">
         <v>85040211</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B77" s="17">
         <v>100866604</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G77" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H77" s="14">
         <v>114682873</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J77" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K77" s="14">
         <v>111961792</v>
       </c>
-      <c r="M73" s="44" t="s">
+      <c r="M77" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N77" s="44"/>
+      <c r="O77" s="14">
         <v>129486693</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B78" s="17">
         <v>93316192</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G78" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H78" s="14">
         <v>105698715</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="J78" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K78" s="14">
         <v>114316535</v>
       </c>
-      <c r="M74" s="44" t="s">
+      <c r="M78" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N78" s="44"/>
+      <c r="O78" s="14">
         <v>124536837</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B79" s="17">
         <v>87484866</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G79" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H79" s="14">
         <v>146007585</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J79" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K79" s="14">
         <v>103038859</v>
       </c>
-      <c r="M75" s="44" t="s">
+      <c r="M79" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N79" s="44"/>
+      <c r="O79" s="14">
         <v>103066607</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B80" s="17">
         <v>79961121</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E80" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G80" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H80" s="14">
         <v>144146972</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="J80" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K80" s="14">
         <v>104534465</v>
       </c>
-      <c r="M76" s="44" t="s">
+      <c r="M80" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N80" s="44"/>
+      <c r="O80" s="14">
         <v>124041150</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B81" s="17">
         <v>61456009</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D81" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E81" s="17">
         <v>55868233</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G81" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H77" s="28">
-        <f>SUM(H63:H76)</f>
+      <c r="H81" s="28">
+        <f>SUM(H67:H80)</f>
         <v>1532037843</v>
       </c>
-      <c r="J77" s="14" t="s">
+      <c r="J81" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K81" s="14">
         <v>64473564</v>
       </c>
-      <c r="M77" s="15" t="s">
+      <c r="M81" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="N77" s="28">
-        <f>SUM(N64:N76)</f>
+      <c r="N81" s="15"/>
+      <c r="O81" s="28">
+        <f>SUM(O68:O80)</f>
         <v>1469692369</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B82" s="17">
         <v>67284553</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D82" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E82" s="17">
         <v>62769430</v>
       </c>
-      <c r="J78" s="14" t="s">
+      <c r="J82" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K82" s="14">
         <v>70731513</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B83" s="17">
         <v>46690656</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D83" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E83" s="17">
         <v>45765648</v>
       </c>
-      <c r="J79" s="14" t="s">
+      <c r="J83" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K83" s="14">
         <v>53248092</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B84" s="17">
         <v>51454130</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D84" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E84" s="17">
         <v>62178258</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J84" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K84" s="14">
         <v>56598092</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B85" s="17">
         <v>61933047</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D85" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E85" s="17">
         <v>64140413</v>
       </c>
-      <c r="J81" s="14" t="s">
+      <c r="J85" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K85" s="14">
         <v>64368997</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B86" s="17">
         <v>64294643</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D86" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E86" s="17">
         <v>51074515</v>
       </c>
-      <c r="J82" s="14" t="s">
+      <c r="J86" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K86" s="14">
         <v>68668488</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B87" s="17">
         <v>55312611</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E87" s="17">
         <v>60982465</v>
       </c>
-      <c r="J83" s="14" t="s">
+      <c r="J87" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K87" s="14">
         <v>58101237</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B88" s="17">
         <v>65894135</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D88" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E88" s="17">
         <v>57128820</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J88" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K88" s="14">
         <v>69935236</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B89" s="17">
         <v>50995436</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D89" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E89" s="17">
         <v>70713020</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J89" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K89" s="14">
         <v>53439012</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B90" s="17">
         <v>63374666</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D90" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E90" s="17">
         <v>62175169</v>
       </c>
-      <c r="H86">
-        <f>H77/E90</f>
+      <c r="H90">
+        <f>H81/E94</f>
         <v>2.0448216817391351</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J90" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K90" s="14">
         <v>67973905</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B91" s="17">
         <v>66087774</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D91" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E91" s="17">
         <v>62681010</v>
       </c>
-      <c r="J87" s="14" t="s">
+      <c r="J91" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K91" s="14">
         <v>73211361</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B92" s="17">
         <v>59109837</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D92" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E92" s="17">
         <v>35429946</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J92" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K92" s="14">
         <v>63843421</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B93" s="17">
         <v>60534298</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D93" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E93" s="17">
         <v>58321163</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J93" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K93" s="14">
         <v>64892201</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="28">
-        <f>SUM(B64:B89)</f>
+      <c r="B94" s="28">
+        <f>SUM(B68:B93)</f>
         <v>1934654758</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="15" t="s">
+      <c r="C94" s="4"/>
+      <c r="D94" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="28">
-        <f>SUM(E77:E89)</f>
+      <c r="E94" s="28">
+        <f>SUM(E81:E93)</f>
         <v>749228090</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="J94" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K90" s="28">
-        <f>SUM(K64:K89)</f>
+      <c r="K94" s="28">
+        <f>SUM(K68:K93)</f>
         <v>2170788245</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="38" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="39">
-        <f>SUM(B64:B76)</f>
+      <c r="B95" s="39">
+        <f>SUM(B68:B80)</f>
         <v>1160232963</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="38" t="s">
+      <c r="J95" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="K95">
+        <f>SUM(K68:K80)</f>
+        <v>1341303126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="39">
-        <f>SUM(B77:B89)</f>
+      <c r="B96" s="39">
+        <f>SUM(B81:B93)</f>
         <v>774421795</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="J96" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="K96">
+        <f>SUM(K81:K93)</f>
+        <v>829485119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:29" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="24"/>
-    </row>
-    <row r="96" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+      <c r="B99" s="24"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="L99" s="98"/>
+      <c r="M99" s="98"/>
+      <c r="N99" s="96"/>
+      <c r="O99" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="P99" s="99"/>
+      <c r="Q99" s="99"/>
+      <c r="R99" s="99"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="U99" s="98"/>
+      <c r="V99" s="98"/>
+      <c r="W99" s="100"/>
+      <c r="X99" s="87"/>
+    </row>
+    <row r="100" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F100" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G100" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="16" t="s">
+      <c r="I100" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="K100" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L100" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="M100" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="O100" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q100" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R100" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S100" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="T100" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="U100" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="V100" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="W100" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="X100" s="79" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B101" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C101" s="30">
         <v>2173195</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D101" s="30">
         <v>581064</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E101" s="30">
         <v>1924764</v>
       </c>
-      <c r="F97" s="31">
-        <f>SUM(C97:E97)</f>
+      <c r="F101" s="31">
+        <f>SUM(C101:E101)</f>
         <v>4679023</v>
       </c>
-      <c r="G97" s="18">
-        <f>E97/F97</f>
+      <c r="G101" s="18">
+        <f>E101/F101</f>
         <v>0.41136023481825157</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="16" t="s">
+      <c r="I101" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="J101" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="K101" s="81">
+        <v>1629969</v>
+      </c>
+      <c r="L101" s="81">
+        <v>1188755</v>
+      </c>
+      <c r="M101" s="81">
+        <v>2227647</v>
+      </c>
+      <c r="N101" s="81"/>
+      <c r="O101" s="31">
+        <v>279902020</v>
+      </c>
+      <c r="P101" s="31">
+        <v>465653102</v>
+      </c>
+      <c r="Q101" s="31">
+        <v>381250708</v>
+      </c>
+      <c r="R101" s="31">
+        <f>SUM(O101:Q101)</f>
+        <v>1126805830</v>
+      </c>
+      <c r="S101" s="31">
+        <v>223974051</v>
+      </c>
+      <c r="T101" s="89">
+        <f>O101/$O$81</f>
+        <v>0.1904493932906853</v>
+      </c>
+      <c r="U101" s="89">
+        <f t="shared" ref="U101" si="21">P101/$O$81</f>
+        <v>0.3168371230755162</v>
+      </c>
+      <c r="V101" s="89">
+        <f t="shared" ref="V101" si="22">Q101/$O$81</f>
+        <v>0.25940851027171657</v>
+      </c>
+      <c r="W101" s="90">
+        <f>R101/$O$81</f>
+        <v>0.76669502663791811</v>
+      </c>
+      <c r="X101" s="90">
+        <f>S101/$O$81</f>
+        <v>0.15239519216691258</v>
+      </c>
+      <c r="Z101">
+        <v>0.15239519216691258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B102" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C102" s="30">
         <v>1450799</v>
       </c>
-      <c r="D98" s="30">
+      <c r="D102" s="30">
         <v>1315376</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E102" s="30">
         <v>2231089</v>
       </c>
-      <c r="F98" s="31">
-        <f t="shared" ref="F98:F112" si="18">SUM(C98:E98)</f>
+      <c r="F102" s="31">
+        <f t="shared" ref="F102:F116" si="23">SUM(C102:E102)</f>
         <v>4997264</v>
       </c>
-      <c r="G98" s="18">
-        <f t="shared" ref="G98:G112" si="19">E98/F98</f>
+      <c r="G102" s="18">
+        <f t="shared" ref="G102:G116" si="24">E102/F102</f>
         <v>0.44646210406334347</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="I102" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J102" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102" s="81">
+        <v>1024096</v>
+      </c>
+      <c r="L102" s="81">
+        <v>665198</v>
+      </c>
+      <c r="M102" s="81">
+        <v>1440574</v>
+      </c>
+      <c r="N102" s="81"/>
+      <c r="O102" s="95">
+        <v>174385641</v>
+      </c>
+      <c r="P102" s="95">
+        <v>254516118</v>
+      </c>
+      <c r="Q102" s="95">
+        <v>244848961</v>
+      </c>
+      <c r="R102" s="95">
+        <f>SUM(O102:Q102)</f>
+        <v>673750720</v>
+      </c>
+      <c r="S102" s="95">
+        <v>147737793</v>
+      </c>
+      <c r="T102" s="89">
+        <f>O102/$E$94</f>
+        <v>0.23275374125388171</v>
+      </c>
+      <c r="U102" s="89">
+        <f>P102/$E$94</f>
+        <v>0.33970445235175312</v>
+      </c>
+      <c r="V102" s="89">
+        <f>Q102/$E$94</f>
+        <v>0.32680162992821049</v>
+      </c>
+      <c r="W102" s="90">
+        <f>R102/$E$94</f>
+        <v>0.89925982353384537</v>
+      </c>
+      <c r="X102" s="90">
+        <f>S102/$E$94</f>
+        <v>0.19718667115110433</v>
+      </c>
+      <c r="Z102">
+        <v>0.19718667115110433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B103" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="18"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="18"/>
+      <c r="I103" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="J103" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="K103" s="81">
+        <v>1474311</v>
+      </c>
+      <c r="L103" s="81">
+        <v>119338</v>
+      </c>
+      <c r="M103" s="81">
+        <v>2352929</v>
+      </c>
+      <c r="N103" s="81"/>
+      <c r="O103" s="30">
+        <f>252765022</f>
+        <v>252765022</v>
+      </c>
+      <c r="P103" s="30">
+        <f>467251022</f>
+        <v>467251022</v>
+      </c>
+      <c r="Q103" s="30">
+        <f>404037780</f>
+        <v>404037780</v>
+      </c>
+      <c r="R103" s="31">
+        <f>SUM(O103:Q103)</f>
+        <v>1124053824</v>
+      </c>
+      <c r="S103" s="31">
+        <v>233352357</v>
+      </c>
+      <c r="T103" s="89">
+        <f>O103/$O$81</f>
+        <v>0.17198498633559961</v>
+      </c>
+      <c r="U103" s="89">
+        <f t="shared" ref="U103:X103" si="25">P103/$O$81</f>
+        <v>0.31792437101508825</v>
+      </c>
+      <c r="V103" s="89">
+        <f t="shared" si="25"/>
+        <v>0.27491316449776027</v>
+      </c>
+      <c r="W103" s="90">
+        <f t="shared" si="25"/>
+        <v>0.76482252184844812</v>
+      </c>
+      <c r="X103" s="90">
+        <f t="shared" si="25"/>
+        <v>0.15877632756491505</v>
+      </c>
+      <c r="Z103">
+        <v>0.15877632756491505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B104" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="18"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="18"/>
+      <c r="I104" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="J104" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104" s="81">
+        <v>1061655</v>
+      </c>
+      <c r="L104" s="81">
+        <v>637100</v>
+      </c>
+      <c r="M104" s="81">
+        <v>1397439</v>
+      </c>
+      <c r="N104" s="81"/>
+      <c r="O104" s="30">
+        <f>180291475</f>
+        <v>180291475</v>
+      </c>
+      <c r="P104" s="30">
+        <f>243969318</f>
+        <v>243969318</v>
+      </c>
+      <c r="Q104" s="30">
+        <f>237655721</f>
+        <v>237655721</v>
+      </c>
+      <c r="R104" s="31">
+        <f>SUM(O104:Q104)</f>
+        <v>661916514</v>
+      </c>
+      <c r="S104" s="31">
+        <v>143095533</v>
+      </c>
+      <c r="T104" s="89">
+        <f>O104/$E$94</f>
+        <v>0.24063629942118162</v>
+      </c>
+      <c r="U104" s="89">
+        <f>P104/$E$94</f>
+        <v>0.32562756423080719</v>
+      </c>
+      <c r="V104" s="89">
+        <f>Q104/$E$94</f>
+        <v>0.31720076192017843</v>
+      </c>
+      <c r="W104" s="90">
+        <f>R104/$E$94</f>
+        <v>0.88346462557216721</v>
+      </c>
+      <c r="X104" s="90">
+        <f>S104/$E$94</f>
+        <v>0.1909906140865594</v>
+      </c>
+      <c r="Z104">
+        <v>0.1909906140865594</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B105" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C105" s="17">
         <v>1074165</v>
       </c>
-      <c r="D101" s="17">
+      <c r="D105" s="17">
         <v>699274</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E105" s="17">
         <v>1386710</v>
       </c>
-      <c r="F101" s="31">
-        <f t="shared" si="18"/>
+      <c r="F105" s="31">
+        <f t="shared" si="23"/>
         <v>3160149</v>
       </c>
-      <c r="G101" s="18">
-        <f t="shared" si="19"/>
+      <c r="G105" s="18">
+        <f t="shared" si="24"/>
         <v>0.43881158768146694</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
+      <c r="I105" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="J105" s="82"/>
+      <c r="K105" s="83">
+        <f>K103+K104</f>
+        <v>2535966</v>
+      </c>
+      <c r="L105" s="83">
+        <f t="shared" ref="L105:M105" si="26">L103+L104</f>
+        <v>756438</v>
+      </c>
+      <c r="M105" s="83">
+        <f t="shared" si="26"/>
+        <v>3750368</v>
+      </c>
+      <c r="N105" s="83"/>
+      <c r="O105" s="69">
+        <f>O103+O104</f>
+        <v>433056497</v>
+      </c>
+      <c r="P105" s="69">
+        <f t="shared" ref="P105" si="27">P103+P104</f>
+        <v>711220340</v>
+      </c>
+      <c r="Q105" s="69">
+        <f t="shared" ref="Q105" si="28">Q103+Q104</f>
+        <v>641693501</v>
+      </c>
+      <c r="R105" s="69">
+        <f>SUM(R103:R104)</f>
+        <v>1785970338</v>
+      </c>
+      <c r="S105" s="69">
+        <v>376447890</v>
+      </c>
+      <c r="T105" s="91">
+        <f>O105/($O$81+$E$94)</f>
+        <v>0.19516539912168163</v>
+      </c>
+      <c r="U105" s="91">
+        <f>P105/($O$81+$E$94)</f>
+        <v>0.32052538752133791</v>
+      </c>
+      <c r="V105" s="91">
+        <f>Q105/($O$81+$E$94)</f>
+        <v>0.28919175466487507</v>
+      </c>
+      <c r="W105" s="92">
+        <f>R105/($O$81+$E$94)</f>
+        <v>0.80488254130789461</v>
+      </c>
+      <c r="X105" s="92">
+        <f>S105/($O$81+$E$94)</f>
+        <v>0.16965362073846199</v>
+      </c>
+      <c r="Z105">
+        <v>0.16965362073846199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B106" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C106" s="17">
         <v>958966</v>
       </c>
-      <c r="D102" s="17">
+      <c r="D106" s="17">
         <v>781281</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E106" s="17">
         <v>1424458</v>
       </c>
-      <c r="F102" s="31">
-        <f t="shared" si="18"/>
+      <c r="F106" s="31">
+        <f t="shared" si="23"/>
         <v>3164705</v>
       </c>
-      <c r="G102" s="18">
-        <f t="shared" si="19"/>
+      <c r="G106" s="18">
+        <f t="shared" si="24"/>
         <v>0.45010767196310558</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="s">
+      <c r="I106" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="J106" s="84"/>
+      <c r="K106" s="81">
+        <v>1217154</v>
+      </c>
+      <c r="L106" s="81">
+        <v>1078119</v>
+      </c>
+      <c r="M106" s="81">
+        <v>2446106</v>
+      </c>
+      <c r="N106" s="81"/>
+      <c r="O106" s="17">
+        <v>208184753</v>
+      </c>
+      <c r="P106" s="17">
+        <v>425867621</v>
+      </c>
+      <c r="Q106" s="17">
+        <v>413495214</v>
+      </c>
+      <c r="R106" s="31">
+        <f>SUM(O106:Q106)</f>
+        <v>1047547588</v>
+      </c>
+      <c r="S106" s="31">
+        <v>255671955</v>
+      </c>
+      <c r="T106" s="89">
+        <f>O106/$K$95</f>
+        <v>0.15521081623125957</v>
+      </c>
+      <c r="U106" s="89">
+        <f t="shared" ref="U106:X106" si="29">P106/$K$95</f>
+        <v>0.31750289158723694</v>
+      </c>
+      <c r="V106" s="89">
+        <f t="shared" si="29"/>
+        <v>0.30827872237434867</v>
+      </c>
+      <c r="W106" s="90">
+        <f t="shared" si="29"/>
+        <v>0.78099243019284514</v>
+      </c>
+      <c r="X106" s="90">
+        <f t="shared" si="29"/>
+        <v>0.19061459713618828</v>
+      </c>
+      <c r="Z106">
+        <v>0.19061459713618828</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B107" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="17">
+      <c r="C107" s="17">
         <v>1048917</v>
       </c>
-      <c r="D103" s="17">
+      <c r="D107" s="17">
         <v>799479</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E107" s="17">
         <v>1266287</v>
       </c>
-      <c r="F103" s="31">
-        <f t="shared" si="18"/>
+      <c r="F107" s="31">
+        <f t="shared" si="23"/>
         <v>3114683</v>
       </c>
-      <c r="G103" s="18">
-        <f t="shared" si="19"/>
+      <c r="G107" s="18">
+        <f t="shared" si="24"/>
         <v>0.40655405381542842</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
+      <c r="I107" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="J107" s="84"/>
+      <c r="K107" s="81">
+        <v>883363</v>
+      </c>
+      <c r="L107" s="81">
+        <v>708512</v>
+      </c>
+      <c r="M107" s="81">
+        <v>1521874</v>
+      </c>
+      <c r="N107" s="81"/>
+      <c r="O107" s="17">
+        <v>151769020</v>
+      </c>
+      <c r="P107" s="17">
+        <v>277853742</v>
+      </c>
+      <c r="Q107" s="17">
+        <v>256206596</v>
+      </c>
+      <c r="R107" s="31">
+        <f>SUM(O107:Q107)</f>
+        <v>685829358</v>
+      </c>
+      <c r="S107" s="31">
+        <v>160693197</v>
+      </c>
+      <c r="T107" s="89">
+        <f>O107/$K$96</f>
+        <v>0.1829677429089599</v>
+      </c>
+      <c r="U107" s="89">
+        <f t="shared" ref="U107:X107" si="30">P107/$K$96</f>
+        <v>0.33497134021520641</v>
+      </c>
+      <c r="V107" s="89">
+        <f t="shared" si="30"/>
+        <v>0.30887425239029515</v>
+      </c>
+      <c r="W107" s="90">
+        <f t="shared" si="30"/>
+        <v>0.82681333551446146</v>
+      </c>
+      <c r="X107" s="90">
+        <f t="shared" si="30"/>
+        <v>0.19372643742388826</v>
+      </c>
+      <c r="Z107">
+        <v>0.19372643742388826</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B108" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C108" s="17">
         <v>999142</v>
       </c>
-      <c r="D104" s="17">
+      <c r="D108" s="17">
         <v>725033</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E108" s="17">
         <v>1411856</v>
       </c>
-      <c r="F104" s="31">
-        <f t="shared" si="18"/>
+      <c r="F108" s="31">
+        <f t="shared" si="23"/>
         <v>3136031</v>
       </c>
-      <c r="G104" s="18">
-        <f t="shared" si="19"/>
+      <c r="G108" s="18">
+        <f t="shared" si="24"/>
         <v>0.45020473330780214</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
+      <c r="I108" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="J108" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="K108" s="86">
+        <f>K106+K107</f>
+        <v>2100517</v>
+      </c>
+      <c r="L108" s="86">
+        <f t="shared" ref="L108" si="31">L106+L107</f>
+        <v>1786631</v>
+      </c>
+      <c r="M108" s="86">
+        <f t="shared" ref="M108" si="32">M106+M107</f>
+        <v>3967980</v>
+      </c>
+      <c r="N108" s="86"/>
+      <c r="O108" s="75">
+        <f>O106+O107</f>
+        <v>359953773</v>
+      </c>
+      <c r="P108" s="75">
+        <f t="shared" ref="P108" si="33">P106+P107</f>
+        <v>703721363</v>
+      </c>
+      <c r="Q108" s="75">
+        <f t="shared" ref="Q108" si="34">Q106+Q107</f>
+        <v>669701810</v>
+      </c>
+      <c r="R108" s="75">
+        <f>SUM(R106:R107)</f>
+        <v>1733376946</v>
+      </c>
+      <c r="S108" s="75">
+        <v>416365152</v>
+      </c>
+      <c r="T108" s="93">
+        <f t="shared" ref="T108:V108" si="35">O108/$K$94</f>
+        <v>0.16581708226451172</v>
+      </c>
+      <c r="U108" s="93">
+        <f t="shared" si="35"/>
+        <v>0.32417780251983996</v>
+      </c>
+      <c r="V108" s="93">
+        <f t="shared" si="35"/>
+        <v>0.30850628178152861</v>
+      </c>
+      <c r="W108" s="94">
+        <f>R108/$K$94</f>
+        <v>0.79850116656588033</v>
+      </c>
+      <c r="X108" s="94">
+        <f>S108/$K$94</f>
+        <v>0.19180366991530304</v>
+      </c>
+      <c r="Z108">
+        <v>0.19180366991530304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A109" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B109" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C109" s="30">
         <v>2753429</v>
       </c>
-      <c r="D105" s="30">
+      <c r="D109" s="30">
         <v>1871043</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E109" s="30">
         <v>3560910</v>
       </c>
-      <c r="F105" s="31">
-        <f t="shared" si="18"/>
+      <c r="F109" s="31">
+        <f t="shared" si="23"/>
         <v>8185382</v>
       </c>
-      <c r="G105" s="18">
-        <f t="shared" si="19"/>
+      <c r="G109" s="18">
+        <f t="shared" si="24"/>
         <v>0.43503284269445214</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
+      <c r="X109" s="77"/>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B110" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C110" s="30">
         <v>2491310</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D110" s="30">
         <v>2019757</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E110" s="30">
         <v>3672451</v>
       </c>
-      <c r="F106" s="31">
-        <f t="shared" si="18"/>
+      <c r="F110" s="31">
+        <f t="shared" si="23"/>
         <v>8183518</v>
       </c>
-      <c r="G106" s="18">
-        <f t="shared" si="19"/>
+      <c r="G110" s="18">
+        <f t="shared" si="24"/>
         <v>0.44876188944656809</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
+      <c r="W110" s="97">
+        <f>MIN(W101:W108)</f>
+        <v>0.76482252184844812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A111" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B111" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C111" s="30">
         <v>2540008</v>
       </c>
-      <c r="D107" s="30">
+      <c r="D111" s="30">
         <v>1996604</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E111" s="30">
         <v>3585718</v>
       </c>
-      <c r="F107" s="31">
-        <f t="shared" si="18"/>
+      <c r="F111" s="31">
+        <f t="shared" si="23"/>
         <v>8122330</v>
       </c>
-      <c r="G107" s="18">
-        <f t="shared" si="19"/>
+      <c r="G111" s="18">
+        <f t="shared" si="24"/>
         <v>0.44146421039283062</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
+      <c r="I111" t="s">
+        <v>229</v>
+      </c>
+      <c r="J111" t="s">
+        <v>230</v>
+      </c>
+      <c r="K111" t="s">
+        <v>231</v>
+      </c>
+      <c r="L111" t="s">
+        <v>232</v>
+      </c>
+      <c r="M111" t="s">
+        <v>233</v>
+      </c>
+      <c r="N111" t="s">
+        <v>234</v>
+      </c>
+      <c r="O111" t="s">
+        <v>235</v>
+      </c>
+      <c r="P111" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>237</v>
+      </c>
+      <c r="R111" t="s">
+        <v>238</v>
+      </c>
+      <c r="T111" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="U111" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="V111" t="s">
+        <v>240</v>
+      </c>
+      <c r="W111" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z111" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC111" s="97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B112" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C112" s="30">
         <v>2437946</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D112" s="30">
         <v>1961355</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E112" s="30">
         <v>3816160</v>
       </c>
-      <c r="F108" s="31">
-        <f t="shared" si="18"/>
+      <c r="F112" s="31">
+        <f t="shared" si="23"/>
         <v>8215461</v>
       </c>
-      <c r="G108" s="18">
-        <f t="shared" si="19"/>
+      <c r="G112" s="18">
+        <f t="shared" si="24"/>
         <v>0.46450953878303358</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
+      <c r="I112" t="s">
+        <v>226</v>
+      </c>
+      <c r="J112" t="s">
+        <v>168</v>
+      </c>
+      <c r="K112">
+        <v>2100517</v>
+      </c>
+      <c r="L112">
+        <v>1786631</v>
+      </c>
+      <c r="M112">
+        <v>3967980</v>
+      </c>
+      <c r="N112">
+        <v>2832416</v>
+      </c>
+      <c r="O112">
+        <v>359953773</v>
+      </c>
+      <c r="P112">
+        <v>703721363</v>
+      </c>
+      <c r="Q112">
+        <v>669701810</v>
+      </c>
+      <c r="R112">
+        <v>416365152</v>
+      </c>
+      <c r="T112" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="U112" s="90">
+        <v>0.76669502663791811</v>
+      </c>
+      <c r="V112" s="90">
+        <v>0.76482252184844812</v>
+      </c>
+      <c r="W112" s="90">
+        <v>0.78099243019284514</v>
+      </c>
+      <c r="Z112" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA112" s="90">
+        <v>0.15239519216691258</v>
+      </c>
+      <c r="AB112" s="90">
+        <v>0.15877632756491505</v>
+      </c>
+      <c r="AC112" s="90">
+        <v>0.19061459713618828</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B113" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C113" s="30">
         <v>1881365</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D113" s="30">
         <v>1790944</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E113" s="30">
         <v>2959624</v>
       </c>
-      <c r="F109" s="31">
-        <f t="shared" si="18"/>
+      <c r="F113" s="31">
+        <f t="shared" si="23"/>
         <v>6631933</v>
       </c>
-      <c r="G109" s="18">
-        <f t="shared" si="19"/>
+      <c r="G113" s="18">
+        <f t="shared" si="24"/>
         <v>0.44626868214742216</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
+      <c r="I113" t="s">
+        <v>226</v>
+      </c>
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+      <c r="K113">
+        <v>1217154</v>
+      </c>
+      <c r="L113">
+        <v>1078119</v>
+      </c>
+      <c r="M113">
+        <v>2446106</v>
+      </c>
+      <c r="N113">
+        <v>255671955</v>
+      </c>
+      <c r="O113">
+        <v>208184753</v>
+      </c>
+      <c r="P113">
+        <v>425867621</v>
+      </c>
+      <c r="Q113">
+        <v>413495214</v>
+      </c>
+      <c r="R113">
+        <v>255671955</v>
+      </c>
+      <c r="T113" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="U113" s="90">
+        <v>0.89925982353384537</v>
+      </c>
+      <c r="V113" s="90">
+        <v>0.88346462557216721</v>
+      </c>
+      <c r="W113" s="90">
+        <v>0.82681333551446146</v>
+      </c>
+      <c r="Z113" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA113" s="90">
+        <v>0.19718667115110433</v>
+      </c>
+      <c r="AB113" s="90">
+        <v>0.1909906140865594</v>
+      </c>
+      <c r="AC113" s="90">
+        <v>0.19372643742388826</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B114" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C114" s="30">
         <v>2122129</v>
       </c>
-      <c r="D110" s="30">
+      <c r="D114" s="30">
         <v>1918242</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E114" s="30">
         <v>2587301</v>
       </c>
-      <c r="F110" s="31">
-        <f t="shared" si="18"/>
+      <c r="F114" s="31">
+        <f t="shared" si="23"/>
         <v>6627672</v>
       </c>
-      <c r="G110" s="18">
-        <f t="shared" si="19"/>
+      <c r="G114" s="18">
+        <f t="shared" si="24"/>
         <v>0.39037855222769019</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
+      <c r="I114" t="s">
+        <v>226</v>
+      </c>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+      <c r="K114">
+        <v>883363</v>
+      </c>
+      <c r="L114">
+        <v>708512</v>
+      </c>
+      <c r="M114">
+        <v>1521874</v>
+      </c>
+      <c r="N114">
+        <v>160693197</v>
+      </c>
+      <c r="O114">
+        <v>151769020</v>
+      </c>
+      <c r="P114">
+        <v>277853742</v>
+      </c>
+      <c r="Q114">
+        <v>256206596</v>
+      </c>
+      <c r="R114">
+        <v>160693197</v>
+      </c>
+      <c r="T114" s="72"/>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B115" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C115" s="30">
         <v>1933070</v>
       </c>
-      <c r="D111" s="30">
+      <c r="D115" s="30">
         <v>1801466</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E115" s="30">
         <v>2895060</v>
       </c>
-      <c r="F111" s="31">
-        <f t="shared" si="18"/>
+      <c r="F115" s="31">
+        <f t="shared" si="23"/>
         <v>6629596</v>
       </c>
-      <c r="G111" s="18">
-        <f t="shared" si="19"/>
+      <c r="G115" s="18">
+        <f t="shared" si="24"/>
         <v>0.43668724308389228</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
+      <c r="I115" t="s">
+        <v>218</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+      <c r="K115">
+        <v>2535966</v>
+      </c>
+      <c r="L115">
+        <v>1830438</v>
+      </c>
+      <c r="M115">
+        <v>3750368</v>
+      </c>
+      <c r="N115">
+        <v>2560870</v>
+      </c>
+      <c r="O115">
+        <v>433056497</v>
+      </c>
+      <c r="P115">
+        <v>711220340</v>
+      </c>
+      <c r="Q115">
+        <v>641693501</v>
+      </c>
+      <c r="R115">
+        <v>376447890</v>
+      </c>
+      <c r="T115" s="72"/>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B116" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C116" s="30">
         <v>2272303</v>
       </c>
-      <c r="D112" s="30">
+      <c r="D116" s="30">
         <v>1819033</v>
       </c>
-      <c r="E112" s="30">
+      <c r="E116" s="30">
         <v>2622240</v>
       </c>
-      <c r="F112" s="31">
-        <f t="shared" si="18"/>
+      <c r="F116" s="31">
+        <f t="shared" si="23"/>
         <v>6713576</v>
       </c>
-      <c r="G112" s="18">
-        <f t="shared" si="19"/>
+      <c r="G116" s="18">
+        <f t="shared" si="24"/>
         <v>0.39058766892636654</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
+      <c r="I116" t="s">
+        <v>218</v>
+      </c>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+      <c r="K116">
+        <v>1474311</v>
+      </c>
+      <c r="L116">
+        <v>1193338</v>
+      </c>
+      <c r="M116">
+        <v>2352929</v>
+      </c>
+      <c r="N116">
+        <v>233352357</v>
+      </c>
+      <c r="O116">
+        <v>252765022</v>
+      </c>
+      <c r="P116">
+        <v>467251022</v>
+      </c>
+      <c r="Q116">
+        <v>404037780</v>
+      </c>
+      <c r="R116">
+        <v>233352357</v>
+      </c>
+      <c r="T116" s="72"/>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A117" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B117" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C113" s="35">
+      <c r="C117" s="35">
         <v>2246016</v>
       </c>
-      <c r="D113" s="35">
+      <c r="D117" s="35">
         <v>1908103</v>
       </c>
-      <c r="E113" s="35">
+      <c r="E117" s="35">
         <v>3719758</v>
       </c>
-      <c r="F113" s="36">
-        <f t="shared" ref="F113:F116" si="20">SUM(C113:E113)</f>
+      <c r="F117" s="36">
+        <f t="shared" ref="F117:F120" si="36">SUM(C117:E117)</f>
         <v>7873877</v>
       </c>
-      <c r="G113" s="37">
-        <f t="shared" ref="G113:G116" si="21">E113/F113</f>
+      <c r="G117" s="37">
+        <f t="shared" ref="G117:G120" si="37">E117/F117</f>
         <v>0.47241759047036169</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="33" t="s">
+      <c r="I117" t="s">
+        <v>218</v>
+      </c>
+      <c r="J117" t="s">
+        <v>145</v>
+      </c>
+      <c r="K117">
+        <v>1061655</v>
+      </c>
+      <c r="L117">
+        <v>637100</v>
+      </c>
+      <c r="M117">
+        <v>1397439</v>
+      </c>
+      <c r="N117">
+        <v>143095533</v>
+      </c>
+      <c r="O117">
+        <v>180291475</v>
+      </c>
+      <c r="P117">
+        <v>243969318</v>
+      </c>
+      <c r="Q117">
+        <v>237655721</v>
+      </c>
+      <c r="R117">
+        <v>143095533</v>
+      </c>
+      <c r="T117" s="72"/>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A118" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B118" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C114" s="35">
+      <c r="C118" s="35">
         <v>2404703</v>
       </c>
-      <c r="D114" s="35">
+      <c r="D118" s="35">
         <v>2114914</v>
       </c>
-      <c r="E114" s="35">
+      <c r="E118" s="35">
         <v>3316891</v>
       </c>
-      <c r="F114" s="36">
-        <f>SUM(C114:E114)</f>
+      <c r="F118" s="36">
+        <f>SUM(C118:E118)</f>
         <v>7836508</v>
       </c>
-      <c r="G114" s="37">
-        <f t="shared" si="21"/>
+      <c r="G118" s="37">
+        <f t="shared" si="37"/>
         <v>0.42326135569567463</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="33" t="s">
+      <c r="I118" t="s">
+        <v>199</v>
+      </c>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+      <c r="K118">
+        <v>1629969</v>
+      </c>
+      <c r="L118">
+        <v>1188755</v>
+      </c>
+      <c r="M118">
+        <v>2227647</v>
+      </c>
+      <c r="N118">
+        <v>1523633</v>
+      </c>
+      <c r="O118">
+        <v>279902020</v>
+      </c>
+      <c r="P118">
+        <v>465653102</v>
+      </c>
+      <c r="Q118">
+        <v>381250708</v>
+      </c>
+      <c r="R118">
+        <v>223974051</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B119" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C115" s="35">
+      <c r="C119" s="35">
         <v>2296110</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D119" s="35">
         <v>1937843</v>
       </c>
-      <c r="E115" s="35">
+      <c r="E119" s="35">
         <v>3624151</v>
       </c>
-      <c r="F115" s="36">
-        <f t="shared" si="20"/>
+      <c r="F119" s="36">
+        <f t="shared" si="36"/>
         <v>7858104</v>
       </c>
-      <c r="G115" s="37">
-        <f t="shared" si="21"/>
+      <c r="G119" s="37">
+        <f t="shared" si="37"/>
         <v>0.4611991645821944</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="33" t="s">
+      <c r="I119" t="s">
+        <v>239</v>
+      </c>
+      <c r="J119" t="s">
+        <v>145</v>
+      </c>
+      <c r="K119">
+        <v>1024096</v>
+      </c>
+      <c r="L119">
+        <v>665198</v>
+      </c>
+      <c r="M119">
+        <v>1440574</v>
+      </c>
+      <c r="N119">
+        <v>1005019</v>
+      </c>
+      <c r="O119">
+        <v>174385641</v>
+      </c>
+      <c r="P119">
+        <v>254516118</v>
+      </c>
+      <c r="Q119">
+        <v>244848961</v>
+      </c>
+      <c r="R119">
+        <v>147737793</v>
+      </c>
+      <c r="T119" s="74"/>
+      <c r="U119" s="94"/>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A120" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B120" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="35">
+      <c r="C120" s="35">
         <v>2697077</v>
       </c>
-      <c r="D116" s="35">
+      <c r="D120" s="35">
         <v>1899746</v>
       </c>
-      <c r="E116" s="35">
+      <c r="E120" s="35">
         <v>3344356</v>
       </c>
-      <c r="F116" s="36">
-        <f t="shared" si="20"/>
+      <c r="F120" s="36">
+        <f t="shared" si="36"/>
         <v>7941179</v>
       </c>
-      <c r="G116" s="37">
-        <f t="shared" si="21"/>
+      <c r="G120" s="37">
+        <f t="shared" si="37"/>
         <v>0.42114099178472114</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+    <row r="125" spans="1:29" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H121" s="6" t="s">
+      <c r="H125" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B126" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C126" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14" t="s">
+      <c r="D126" s="14"/>
+      <c r="E126" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F122" s="14"/>
-      <c r="H122" s="14" t="s">
+      <c r="F126" s="14"/>
+      <c r="H126" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I122" s="14" t="s">
+      <c r="I126" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="J122" s="14" t="s">
+      <c r="J126" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K122" s="40" t="s">
+      <c r="K126" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="L122" s="14" t="s">
+      <c r="L126" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="M122" s="14" t="s">
+      <c r="M126" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="N122" s="41" t="s">
+      <c r="N126" s="14"/>
+      <c r="O126" s="41" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A127" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B127" s="14">
         <v>7182454</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C127" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14">
-        <f>B123/B125</f>
-        <v>0.21145193944107205</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I123" s="14">
-        <v>74730475</v>
-      </c>
-      <c r="J123" s="14">
-        <v>43290940</v>
-      </c>
-      <c r="K123" s="40">
-        <f>I123/J123</f>
-        <v>1.7262382152016102</v>
-      </c>
-      <c r="L123" s="14">
-        <f>I123/$H$77</f>
-        <v>4.8778478509163038E-2</v>
-      </c>
-      <c r="M123" s="14">
-        <f>J123/$E$90</f>
-        <v>5.7780722022848875E-2</v>
-      </c>
-      <c r="N123" s="41">
-        <f>L123/M123</f>
-        <v>0.84419987846247435</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14">
-        <v>26784745</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14">
-        <f>B124/B125</f>
-        <v>0.78854473383116097</v>
-      </c>
-      <c r="F124" s="14"/>
-      <c r="H124" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I124" s="14">
-        <v>45413930</v>
-      </c>
-      <c r="J124" s="14">
-        <v>27888707</v>
-      </c>
-      <c r="K124" s="40">
-        <f t="shared" ref="K124:K130" si="22">I124/J124</f>
-        <v>1.6283985485594581</v>
-      </c>
-      <c r="L124" s="14">
-        <f>I124/$H$77</f>
-        <v>2.9642825213162832E-2</v>
-      </c>
-      <c r="M124" s="14">
-        <f>J124/$E$90</f>
-        <v>3.722325333530941E-2</v>
-      </c>
-      <c r="N124" s="41">
-        <f t="shared" ref="N124:N127" si="23">L124/M124</f>
-        <v>0.79635234852092041</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14">
-        <v>33967312</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="H125" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I125" s="14">
-        <v>48446334</v>
-      </c>
-      <c r="J125" s="14">
-        <v>29130342</v>
-      </c>
-      <c r="K125" s="40">
-        <f t="shared" si="22"/>
-        <v>1.663088404523366</v>
-      </c>
-      <c r="L125" s="14">
-        <f>I125/$H$77</f>
-        <v>3.1622152299536896E-2</v>
-      </c>
-      <c r="M125" s="14">
-        <f>J125/$E$90</f>
-        <v>3.8880472300497973E-2</v>
-      </c>
-      <c r="N125" s="41">
-        <f t="shared" si="23"/>
-        <v>0.81331708254819446</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14">
-        <v>2950954</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14">
-        <f t="shared" ref="E126" si="24">B126/B128</f>
-        <v>0.16372111097074485</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H126" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I126" s="14">
-        <v>59053619</v>
-      </c>
-      <c r="J126" s="14">
-        <v>36607479</v>
-      </c>
-      <c r="K126" s="40">
-        <f t="shared" si="22"/>
-        <v>1.6131572185017165</v>
-      </c>
-      <c r="L126" s="14">
-        <f>I126/$H$77</f>
-        <v>3.8545796547925087E-2</v>
-      </c>
-      <c r="M126" s="14">
-        <f>J126/$E$90</f>
-        <v>4.8860259630682024E-2</v>
-      </c>
-      <c r="N126" s="41">
-        <f t="shared" si="23"/>
-        <v>0.78889872545253681</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14">
-        <v>15073234</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="14">
-        <f t="shared" ref="E127" si="25">B127/B128</f>
-        <v>0.83627417316637398</v>
-      </c>
-      <c r="F127" s="14"/>
+        <f>B127/B129</f>
+        <v>0.21145193944107205</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="H127" s="14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I127" s="14">
-        <v>64496248</v>
+        <v>74730475</v>
       </c>
       <c r="J127" s="14">
-        <v>47841670</v>
+        <v>43290940</v>
       </c>
       <c r="K127" s="40">
-        <f t="shared" si="22"/>
-        <v>1.3481186589013301</v>
+        <f>I127/J127</f>
+        <v>1.7262382152016102</v>
       </c>
       <c r="L127" s="14">
-        <f>I127/$B$91</f>
-        <v>5.5589049834640837E-2</v>
+        <f>I127/$H$81</f>
+        <v>4.8778478509163038E-2</v>
       </c>
       <c r="M127" s="14">
-        <f>J127/$B$92</f>
-        <v>6.1777277329856141E-2</v>
-      </c>
-      <c r="N127" s="41">
-        <f t="shared" si="23"/>
-        <v>0.89983003844320253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+        <f>J127/$E$94</f>
+        <v>5.7780722022848875E-2</v>
+      </c>
+      <c r="N127" s="14"/>
+      <c r="O127" s="41">
+        <f>L127/M127</f>
+        <v>0.84419987846247435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="14">
-        <v>18024273</v>
+        <v>26784745</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="E128" s="14">
+        <f>B128/B129</f>
+        <v>0.78854473383116097</v>
+      </c>
       <c r="F128" s="14"/>
       <c r="H128" s="14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="I128" s="14">
-        <v>38906905</v>
+        <v>45413930</v>
       </c>
       <c r="J128" s="14">
-        <v>29446382</v>
+        <v>27888707</v>
       </c>
       <c r="K128" s="40">
-        <f t="shared" si="22"/>
-        <v>1.321279639719406</v>
+        <f t="shared" ref="K128:K134" si="38">I128/J128</f>
+        <v>1.6283985485594581</v>
       </c>
       <c r="L128" s="14">
-        <f t="shared" ref="L128:L130" si="26">I128/$B$91</f>
-        <v>3.3533700765921097E-2</v>
+        <f>I128/$H$81</f>
+        <v>2.9642825213162832E-2</v>
       </c>
       <c r="M128" s="14">
-        <f t="shared" ref="M128:M130" si="27">J128/$B$92</f>
-        <v>3.8023699991553056E-2</v>
-      </c>
-      <c r="N128" s="41">
-        <f t="shared" ref="N128:N130" si="28">L128/M128</f>
-        <v>0.88191577288298062</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+        <f>J128/$E$94</f>
+        <v>3.722325333530941E-2</v>
+      </c>
+      <c r="N128" s="14"/>
+      <c r="O128" s="41">
+        <f t="shared" ref="O128:O131" si="39">L128/M128</f>
+        <v>0.79635234852092041</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="14">
-        <v>7886817</v>
+        <v>33967312</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D129" s="14"/>
-      <c r="E129" s="14">
-        <f t="shared" ref="E129" si="29">B129/B131</f>
-        <v>0.35403308569146147</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
       <c r="H129" s="14" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I129" s="14">
-        <v>57139735</v>
+        <v>48446334</v>
       </c>
       <c r="J129" s="14">
-        <v>41705714</v>
+        <v>29130342</v>
       </c>
       <c r="K129" s="40">
-        <f t="shared" si="22"/>
-        <v>1.3700696983631548</v>
+        <f t="shared" si="38"/>
+        <v>1.663088404523366</v>
       </c>
       <c r="L129" s="14">
-        <f t="shared" si="26"/>
-        <v>4.9248501656300556E-2</v>
+        <f>I129/$H$81</f>
+        <v>3.1622152299536896E-2</v>
       </c>
       <c r="M129" s="14">
-        <f t="shared" si="27"/>
-        <v>5.3854003424580785E-2</v>
-      </c>
-      <c r="N129" s="41">
-        <f t="shared" si="28"/>
-        <v>0.91448171954885493</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+        <f>J129/$E$94</f>
+        <v>3.8880472300497973E-2</v>
+      </c>
+      <c r="N129" s="14"/>
+      <c r="O129" s="41">
+        <f t="shared" si="39"/>
+        <v>0.81331708254819446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="14">
-        <v>14390140</v>
+        <v>2950954</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14">
-        <f t="shared" ref="E130" si="30">B130/B131</f>
-        <v>0.6459622009401419</v>
-      </c>
-      <c r="F130" s="14"/>
+        <f t="shared" ref="E130" si="40">B130/B132</f>
+        <v>0.16372111097074485</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="H130" s="14" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I130" s="14">
-        <v>78386280</v>
+        <v>59053619</v>
       </c>
       <c r="J130" s="14">
-        <v>60617054</v>
+        <v>36607479</v>
       </c>
       <c r="K130" s="40">
-        <f t="shared" si="22"/>
-        <v>1.2931390562134544</v>
+        <f t="shared" si="38"/>
+        <v>1.6131572185017165</v>
       </c>
       <c r="L130" s="14">
-        <f t="shared" si="26"/>
-        <v>6.7560811061011028E-2</v>
+        <f>I130/$H$81</f>
+        <v>3.8545796547925087E-2</v>
       </c>
       <c r="M130" s="14">
-        <f t="shared" si="27"/>
-        <v>7.8273951471110131E-2</v>
-      </c>
-      <c r="N130" s="41">
-        <f t="shared" si="28"/>
-        <v>0.86313275095031861</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+        <f>J130/$E$94</f>
+        <v>4.8860259630682024E-2</v>
+      </c>
+      <c r="N130" s="14"/>
+      <c r="O130" s="41">
+        <f t="shared" si="39"/>
+        <v>0.78889872545253681</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="14">
-        <v>22277062</v>
+        <v>15073234</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+      <c r="E131" s="14">
+        <f t="shared" ref="E131" si="41">B131/B132</f>
+        <v>0.83627417316637398</v>
+      </c>
       <c r="F131" s="14"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H131" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I131" s="14">
+        <v>64496248</v>
+      </c>
+      <c r="J131" s="14">
+        <v>47841670</v>
+      </c>
+      <c r="K131" s="40">
+        <f t="shared" si="38"/>
+        <v>1.3481186589013301</v>
+      </c>
+      <c r="L131" s="14">
+        <f>I131/$B$95</f>
+        <v>5.5589049834640837E-2</v>
+      </c>
+      <c r="M131" s="14">
+        <f>J131/$B$96</f>
+        <v>6.1777277329856141E-2</v>
+      </c>
+      <c r="N131" s="14"/>
+      <c r="O131" s="41">
+        <f t="shared" si="39"/>
+        <v>0.89983003844320253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="14">
-        <v>6010767</v>
+        <v>18024273</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D132" s="14"/>
-      <c r="E132" s="14">
-        <f t="shared" ref="E132" si="31">B132/B134</f>
-        <v>0.18911365967018634</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H132" t="s">
-        <v>192</v>
-      </c>
-      <c r="L132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="H132" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I132" s="14">
+        <v>38906905</v>
+      </c>
+      <c r="J132" s="14">
+        <v>29446382</v>
+      </c>
+      <c r="K132" s="40">
+        <f t="shared" si="38"/>
+        <v>1.321279639719406</v>
+      </c>
+      <c r="L132" s="14">
+        <f t="shared" ref="L132:L134" si="42">I132/$B$95</f>
+        <v>3.3533700765921097E-2</v>
+      </c>
+      <c r="M132" s="14">
+        <f t="shared" ref="M132:M134" si="43">J132/$B$96</f>
+        <v>3.8023699991553056E-2</v>
+      </c>
+      <c r="N132" s="14"/>
+      <c r="O132" s="41">
+        <f t="shared" ref="O132:O134" si="44">L132/M132</f>
+        <v>0.88191577288298062</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="14">
-        <v>25772917</v>
+        <v>7886817</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14">
-        <f t="shared" ref="E133:E139" si="32">B133/B134</f>
-        <v>0.81087998490807578</v>
-      </c>
-      <c r="F133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J133" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="K133" t="s">
-        <v>186</v>
-      </c>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N133" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O133" s="42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E133" si="45">B133/B135</f>
+        <v>0.35403308569146147</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I133" s="14">
+        <v>57139735</v>
+      </c>
+      <c r="J133" s="14">
+        <v>41705714</v>
+      </c>
+      <c r="K133" s="40">
+        <f t="shared" si="38"/>
+        <v>1.3700696983631548</v>
+      </c>
+      <c r="L133" s="14">
+        <f t="shared" si="42"/>
+        <v>4.9248501656300556E-2</v>
+      </c>
+      <c r="M133" s="14">
+        <f t="shared" si="43"/>
+        <v>5.3854003424580785E-2</v>
+      </c>
+      <c r="N133" s="14"/>
+      <c r="O133" s="41">
+        <f t="shared" si="44"/>
+        <v>0.91448171954885493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="14">
-        <v>31783886</v>
+        <v>14390140</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
+      <c r="E134" s="14">
+        <f t="shared" ref="E134" si="46">B134/B135</f>
+        <v>0.6459622009401419</v>
+      </c>
       <c r="F134" s="14"/>
       <c r="H134" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I134" s="31">
-        <f>B91</f>
-        <v>1160232963</v>
-      </c>
-      <c r="J134" s="31">
-        <f>B92</f>
-        <v>774421795</v>
-      </c>
-      <c r="K134">
-        <f>I134/J134</f>
-        <v>1.4981925489325878</v>
-      </c>
-      <c r="L134" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M134" s="31">
-        <f>H77</f>
-        <v>1532037843</v>
-      </c>
-      <c r="N134" s="31">
-        <f>E90</f>
-        <v>749228090</v>
-      </c>
-      <c r="O134">
-        <f>M134/N134</f>
-        <v>2.0448216817391351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
-        <v>148</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I134" s="14">
+        <v>78386280</v>
+      </c>
+      <c r="J134" s="14">
+        <v>60617054</v>
+      </c>
+      <c r="K134" s="40">
+        <f t="shared" si="38"/>
+        <v>1.2931390562134544</v>
+      </c>
+      <c r="L134" s="14">
+        <f t="shared" si="42"/>
+        <v>6.7560811061011028E-2</v>
+      </c>
+      <c r="M134" s="14">
+        <f t="shared" si="43"/>
+        <v>7.8273951471110131E-2</v>
+      </c>
+      <c r="N134" s="14"/>
+      <c r="O134" s="41">
+        <f t="shared" si="44"/>
+        <v>0.86313275095031861</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" s="14"/>
       <c r="B135" s="14">
-        <v>4437095</v>
+        <v>22277062</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D135" s="14"/>
-      <c r="E135" s="14">
-        <f>B135/B137</f>
-        <v>0.32930802413775395</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H135" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="L135" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="M135" s="31">
-        <v>1185175863</v>
-      </c>
-      <c r="N135" s="31">
-        <v>718777690</v>
-      </c>
-      <c r="O135">
-        <f>M135/N135</f>
-        <v>1.648876807792963</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="14">
-        <v>9036812</v>
+        <v>6010767</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="14">
-        <f t="shared" si="32"/>
-        <v>0.67068537054634725</v>
-      </c>
-      <c r="F136" s="14"/>
-      <c r="H136" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I136" s="14">
-        <f>I135/I134</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="14">
-        <f>J135/J134</f>
-        <v>0</v>
-      </c>
-      <c r="L136" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="M136" s="14">
-        <f>M135/M134</f>
-        <v>0.77359437850387358</v>
-      </c>
-      <c r="N136" s="14">
-        <f>N135/N134</f>
-        <v>0.95935763700477383</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E136" si="47">B136/B138</f>
+        <v>0.18911365967018634</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H136" t="s">
+        <v>192</v>
+      </c>
+      <c r="L136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="14">
-        <v>13473996</v>
+        <v>25772917</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
+      <c r="E137" s="14">
+        <f t="shared" ref="E137:E143" si="48">B137/B138</f>
+        <v>0.81087998490807578</v>
+      </c>
       <c r="F137" s="14"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H137" s="14"/>
+      <c r="I137" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K137" t="s">
+        <v>186</v>
+      </c>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P137" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="14">
-        <v>58892992</v>
+        <v>31783886</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="14">
-        <f>B138/B140</f>
-        <v>0.48475560582651411</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A139" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="H138" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I138" s="31">
+        <f>B95</f>
+        <v>1160232963</v>
+      </c>
+      <c r="J138" s="31">
+        <f>B96</f>
+        <v>774421795</v>
+      </c>
+      <c r="K138">
+        <f>I138/J138</f>
+        <v>1.4981925489325878</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M138" s="31">
+        <f>H81</f>
+        <v>1532037843</v>
+      </c>
+      <c r="N138" s="31"/>
+      <c r="O138" s="31">
+        <f>E94</f>
+        <v>749228090</v>
+      </c>
+      <c r="P138">
+        <f>M138/O138</f>
+        <v>2.0448216817391351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="B139" s="14">
-        <v>62595638</v>
+        <v>4437095</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="14">
-        <f t="shared" si="32"/>
-        <v>0.51523254958394993</v>
-      </c>
-      <c r="F139" s="14"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+        <f>B139/B141</f>
+        <v>0.32930802413775395</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="L139" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M139" s="31">
+        <v>1185175863</v>
+      </c>
+      <c r="N139" s="31"/>
+      <c r="O139" s="31">
+        <v>718777690</v>
+      </c>
+      <c r="P139">
+        <f>M139/O139</f>
+        <v>1.648876807792963</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="14">
-        <v>121490069</v>
+        <v>9036812</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
+      <c r="E140" s="14">
+        <f t="shared" si="48"/>
+        <v>0.67068537054634725</v>
+      </c>
       <c r="F140" s="14"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A141" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="H140" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I140" s="14">
+        <f>I139/I138</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="14">
+        <f>J139/J138</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="M140" s="14">
+        <f>M139/M138</f>
+        <v>0.77359437850387358</v>
+      </c>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14">
+        <f>O139/O138</f>
+        <v>0.95935763700477383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" s="14"/>
       <c r="B141" s="14">
-        <v>18205605</v>
+        <v>13473996</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D141" s="14"/>
-      <c r="E141" s="14">
-        <f t="shared" ref="E141" si="33">B141/B143</f>
-        <v>0.15425679314215984</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="14">
-        <v>99814855</v>
+        <v>58892992</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="14">
-        <f t="shared" ref="E142:E163" si="34">B142/B143</f>
-        <v>0.84573511510601695</v>
-      </c>
-      <c r="F142" s="14"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+        <f>B142/B144</f>
+        <v>0.48475560582651411</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="14">
-        <v>118021415</v>
+        <v>62595638</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
+      <c r="E143" s="14">
+        <f t="shared" si="48"/>
+        <v>0.51523254958394993</v>
+      </c>
       <c r="F143" s="14"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="14">
-        <v>6804550</v>
+        <v>121490069</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D144" s="14"/>
-      <c r="E144" s="14">
-        <f t="shared" ref="E144" si="35">B144/B146</f>
-        <v>9.282817478994651E-2</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="B145" s="14">
-        <v>66497585</v>
+        <v>18205605</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="14">
-        <f t="shared" si="34"/>
-        <v>0.90716497688889419</v>
-      </c>
-      <c r="F145" s="14"/>
+        <f t="shared" ref="E145" si="49">B145/B147</f>
+        <v>0.15425679314215984</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="14">
-        <v>73302637</v>
+        <v>99814855</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
+      <c r="E146" s="14">
+        <f t="shared" ref="E146:E167" si="50">B146/B147</f>
+        <v>0.84573511510601695</v>
+      </c>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="14">
-        <v>21863192</v>
+        <v>118021415</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D147" s="14"/>
-      <c r="E147" s="14">
-        <f t="shared" ref="E147" si="36">B147/B149</f>
-        <v>0.28182687280903862</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="14">
-        <v>55616132</v>
+        <v>6804550</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="14">
-        <f t="shared" si="34"/>
-        <v>0.71691821392295796</v>
-      </c>
-      <c r="F148" s="14"/>
+        <f t="shared" ref="E148" si="51">B148/B150</f>
+        <v>9.282817478994651E-2</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="14">
-        <v>77576676</v>
+        <v>66497585</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
+      <c r="E149" s="14">
+        <f t="shared" si="50"/>
+        <v>0.90716497688889419</v>
+      </c>
       <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="14">
-        <v>11458730</v>
+        <v>73302637</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D150" s="14"/>
-      <c r="E150" s="14">
-        <f t="shared" ref="E150" si="37">B150/B152</f>
-        <v>0.11978463805631835</v>
-      </c>
-      <c r="F150" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
       <c r="B151" s="14">
-        <v>84198688</v>
+        <v>21863192</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="14">
-        <f t="shared" si="34"/>
-        <v>0.88017689280547462</v>
-      </c>
-      <c r="F151" s="14"/>
+        <f t="shared" ref="E151" si="52">B151/B153</f>
+        <v>0.28182687280903862</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="14">
-        <v>95661098</v>
+        <v>55616132</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
+      <c r="E152" s="14">
+        <f t="shared" si="50"/>
+        <v>0.71691821392295796</v>
+      </c>
       <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="14" t="s">
-        <v>168</v>
-      </c>
+      <c r="A153" s="14"/>
       <c r="B153" s="14">
-        <v>31676797</v>
+        <v>77576676</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D153" s="14"/>
-      <c r="E153" s="14">
-        <f>B153/B155</f>
-        <v>0.28197778242605492</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="14">
-        <v>80660109</v>
+        <v>11458730</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="14">
-        <f t="shared" si="34"/>
-        <v>0.7180132090395337</v>
-      </c>
-      <c r="F154" s="14"/>
+        <f t="shared" ref="E154" si="53">B154/B156</f>
+        <v>0.11978463805631835</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="14"/>
       <c r="B155" s="14">
-        <v>112337918</v>
+        <v>84198688</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="E155" s="14">
+        <f t="shared" si="50"/>
+        <v>0.88017689280547462</v>
+      </c>
       <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="14">
-        <v>9125814</v>
+        <v>95661098</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D156" s="14"/>
-      <c r="E156" s="14">
-        <f>B156/B158</f>
-        <v>0.13350951213216711</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="14"/>
+      <c r="A157" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="B157" s="14">
-        <v>59218267</v>
+        <v>31676797</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="14">
-        <f t="shared" si="34"/>
-        <v>0.86635580524459632</v>
-      </c>
-      <c r="F157" s="14"/>
+        <f>B157/B159</f>
+        <v>0.28197778242605492</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="14">
-        <v>68353287</v>
+        <v>80660109</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="E158" s="14">
+        <f t="shared" si="50"/>
+        <v>0.7180132090395337</v>
+      </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="14"/>
       <c r="B159" s="14">
-        <v>25003309</v>
+        <v>112337918</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D159" s="14"/>
-      <c r="E159" s="14">
-        <f>B159/B161</f>
-        <v>0.25295356794828255</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="14">
-        <v>73840992</v>
+        <v>9125814</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="14">
-        <f t="shared" si="34"/>
-        <v>0.74703481796111826</v>
-      </c>
-      <c r="F160" s="14"/>
+        <f>B160/B162</f>
+        <v>0.13350951213216711</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="14">
-        <v>98845449</v>
+        <v>59218267</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
+      <c r="E161" s="14">
+        <f t="shared" si="50"/>
+        <v>0.86635580524459632</v>
+      </c>
       <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
       <c r="B162" s="14">
-        <v>29941338</v>
+        <v>68353287</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D162" s="14"/>
-      <c r="E162" s="14">
-        <f>B162/B164</f>
-        <v>0.21540014284837225</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="14">
-        <v>109054518</v>
+        <v>25003309</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="14">
-        <f t="shared" si="34"/>
-        <v>0.78454605988083714</v>
-      </c>
-      <c r="F163" s="14"/>
+        <f>B163/B165</f>
+        <v>0.25295356794828255</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="14">
+        <v>73840992</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14">
+        <f t="shared" si="50"/>
+        <v>0.74703481796111826</v>
+      </c>
+      <c r="F164" s="14"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14">
+        <v>98845449</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14">
+        <v>29941338</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14">
+        <f>B166/B168</f>
+        <v>0.21540014284837225</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14">
+        <v>109054518</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14">
+        <f t="shared" si="50"/>
+        <v>0.78454605988083714</v>
+      </c>
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14">
         <v>139003334</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C168" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N18" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:N15">
+  <autoFilter ref="A2:O18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:O15">
       <sortCondition ref="A1:A15"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="T99:W99"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CC3ED-6733-7848-A388-094C8B88A1C6}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="55">
+        <v>5.49013E-2</v>
+      </c>
+      <c r="C4" s="55">
+        <v>4.0148999999999997E-2</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0.107084</v>
+      </c>
+      <c r="E4" s="55">
+        <v>9.9219000000000002E-2</v>
+      </c>
+      <c r="F4" s="101">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="56">
+        <v>5.29501E-2</v>
+      </c>
+      <c r="C5" s="56">
+        <v>4.0148999999999997E-2</v>
+      </c>
+      <c r="D5" s="56">
+        <v>0.107084</v>
+      </c>
+      <c r="E5" s="56">
+        <v>9.9219000000000002E-2</v>
+      </c>
+      <c r="F5" s="56">
+        <v>2.4323000000000001E-2</v>
+      </c>
+      <c r="G5" s="56">
+        <v>2.6862799999999999E-2</v>
+      </c>
+      <c r="H5" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="I5" s="56">
+        <v>2.8484800000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="56">
+        <v>4.6956999999999999E-2</v>
+      </c>
+      <c r="C6" s="56">
+        <v>3.5839999999999997E-2</v>
+      </c>
+      <c r="D6" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0.100574</v>
+      </c>
+      <c r="F6" s="56">
+        <v>2.5273400000000001E-2</v>
+      </c>
+      <c r="G6" s="56">
+        <v>2.52731E-2</v>
+      </c>
+      <c r="H6" s="56">
+        <v>2.5272699999999999E-2</v>
+      </c>
+      <c r="I6" s="56">
+        <v>2.6862899999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="56">
+        <v>4.8908500000000001E-2</v>
+      </c>
+      <c r="C7" s="56">
+        <v>3.81984E-2</v>
+      </c>
+      <c r="D7" s="56">
+        <v>0.107084</v>
+      </c>
+      <c r="E7" s="56">
+        <v>9.9219000000000002E-2</v>
+      </c>
+      <c r="F7" s="56">
+        <v>2.3320299999999999E-2</v>
+      </c>
+      <c r="G7" s="56">
+        <v>2.8814599999999999E-2</v>
+      </c>
+      <c r="H7" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="I7" s="56">
+        <v>2.8485199999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="56">
+        <v>4.8908300000000002E-2</v>
+      </c>
+      <c r="C8" s="56">
+        <v>3.7855100000000003E-2</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0.107084</v>
+      </c>
+      <c r="E8" s="56">
+        <v>9.9219000000000002E-2</v>
+      </c>
+      <c r="F8" s="56">
+        <v>2.332E-2</v>
+      </c>
+      <c r="G8" s="56">
+        <v>2.8485199999999999E-2</v>
+      </c>
+      <c r="H8" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="I8" s="56">
+        <v>2.7225300000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="56">
+        <v>5.4697299999999997E-2</v>
+      </c>
+      <c r="C9" s="56">
+        <v>4.0557000000000003E-2</v>
+      </c>
+      <c r="D9" s="56">
+        <v>0.107084</v>
+      </c>
+      <c r="E9" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="F9" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="G9" s="56">
+        <v>2.68627E-2</v>
+      </c>
+      <c r="H9" s="56">
+        <v>2.5272800000000002E-2</v>
+      </c>
+      <c r="I9" s="56">
+        <v>2.7224600000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="56">
+        <v>5.0999000000000003E-2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>3.8198000000000003E-2</v>
+      </c>
+      <c r="D10" s="56">
+        <v>9.9219000000000002E-2</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="F10" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="G10" s="56">
+        <v>2.7225300000000001E-2</v>
+      </c>
+      <c r="H10" s="56">
+        <v>2.5272599999999999E-2</v>
+      </c>
+      <c r="I10" s="56">
+        <v>2.7225200000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="56">
+        <v>5.2949999999999997E-2</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3.8198999999999997E-2</v>
+      </c>
+      <c r="D11" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="E11" s="56">
+        <v>9.5863000000000004E-2</v>
+      </c>
+      <c r="F11" s="56">
+        <v>2.4651599999999999E-2</v>
+      </c>
+      <c r="G11" s="56">
+        <v>2.8122999999999999E-2</v>
+      </c>
+      <c r="H11" s="56">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="I11" s="56">
+        <v>2.7225300000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="56">
+        <v>5.085949E-2</v>
+      </c>
+      <c r="C12" s="56">
+        <v>3.81984E-2</v>
+      </c>
+      <c r="D12" s="56">
+        <v>0.107085</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0.103223</v>
+      </c>
+      <c r="F12" s="56">
+        <v>2.3062300000000001E-2</v>
+      </c>
+      <c r="G12" s="56">
+        <v>2.8485099999999999E-2</v>
+      </c>
+      <c r="H12" s="56">
+        <v>2.1730900000000001E-2</v>
+      </c>
+      <c r="I12" s="56">
+        <v>2.8486000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="56">
+        <v>5.0999000000000003E-2</v>
+      </c>
+      <c r="C13" s="56">
+        <v>4.0149299999999999E-2</v>
+      </c>
+      <c r="D13" s="56">
+        <v>0.10657838</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="F13" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="G13" s="56">
+        <v>2.8485099999999999E-2</v>
+      </c>
+      <c r="H13" s="56">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="I13" s="56">
+        <v>2.8814599999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="56">
+        <v>5.1342199999999998E-2</v>
+      </c>
+      <c r="C14" s="56">
+        <v>4.0149999999999998E-2</v>
+      </c>
+      <c r="D14" s="56">
+        <v>0.107084</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0.1032217</v>
+      </c>
+      <c r="F14" s="56">
+        <v>2.5272699999999999E-2</v>
+      </c>
+      <c r="G14" s="56">
+        <v>2.7224749999999999E-2</v>
+      </c>
+      <c r="H14" s="56">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="I14" s="56">
+        <v>2.7225300000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="56">
+        <v>5.13423E-2</v>
+      </c>
+      <c r="C15" s="56">
+        <v>4.0557000000000003E-2</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0.1032227</v>
+      </c>
+      <c r="E15" s="56">
+        <v>0.1032216</v>
+      </c>
+      <c r="F15" s="56">
+        <v>2.5272699999999999E-2</v>
+      </c>
+      <c r="G15" s="56">
+        <v>2.8122850000000001E-2</v>
+      </c>
+      <c r="H15" s="56">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="I15" s="56">
+        <v>2.8486000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="56">
+        <v>4.9048000000000001E-2</v>
+      </c>
+      <c r="C16" s="56">
+        <v>4.0557000000000003E-2</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0.10708392</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="F16" s="56">
+        <v>2.5272699999999999E-2</v>
+      </c>
+      <c r="G16" s="56">
+        <v>2.7483469999999999E-2</v>
+      </c>
+      <c r="H16" s="56">
+        <v>2.5273E-2</v>
+      </c>
+      <c r="I16" s="56">
+        <v>2.7225249999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="56">
+        <v>4.6957400000000003E-2</v>
+      </c>
+      <c r="C17" s="56">
+        <v>4.0149490000000003E-2</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0.107083</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.10322199999999999</v>
+      </c>
+      <c r="F17" s="56">
+        <v>2.3683200000000001E-2</v>
+      </c>
+      <c r="G17" s="56">
+        <v>2.6862549999999999E-2</v>
+      </c>
+      <c r="H17" s="56">
+        <v>2.3683099999999999E-2</v>
+      </c>
+      <c r="I17" s="56">
+        <v>2.8124300000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>